--- a/BackLogAndSprint2Android.xlsx
+++ b/BackLogAndSprint2Android.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexandre\Desktop\Projet-Android\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Johnatan\Documents\Projet_Android\Projet-Android\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E71D47-B1A9-4B63-B0C6-6F1CFFAD630E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{322B2F38-A0B3-4739-869A-2AD51A49DAB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{73B89499-F026-470B-8F3E-C42C4C713BCD}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{73B89499-F026-470B-8F3E-C42C4C713BCD}"/>
   </bookViews>
   <sheets>
     <sheet name="BackLog" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="36">
   <si>
     <t>Ordre</t>
   </si>
@@ -110,6 +110,39 @@
   </si>
   <si>
     <t xml:space="preserve">Il y a une animation qui révèle l'image </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il y a une animation (un fade) qui révèle l'image  </t>
+  </si>
+  <si>
+    <t>Ne va pas dans le négatif</t>
+  </si>
+  <si>
+    <t>Ils sont afficher sur le bas de l'écran</t>
+  </si>
+  <si>
+    <t>En tan qu'utilisateur, je souhaite pouvoir selectionner les images</t>
+  </si>
+  <si>
+    <t>Lorsque les images sont en verso on ne peu pas voir la différence</t>
+  </si>
+  <si>
+    <t>Je veux voir tous le recto des images avant de voir les versos</t>
+  </si>
+  <si>
+    <t>On ne peut cliquer 2 fois sur la même image de suite</t>
+  </si>
+  <si>
+    <t>Le message est : « Ne part pas trop longtemps»</t>
+  </si>
+  <si>
+    <t>losrqu'on appui sur la notification cela ouvre l'application</t>
+  </si>
+  <si>
+    <t>Il y a une notification qui apparrait après avoir fermer l'application</t>
+  </si>
+  <si>
+    <t>Le nombre de point est affiché</t>
   </si>
 </sst>
 </file>
@@ -165,15 +198,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="40 % - Accent1" xfId="1" builtinId="31"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -190,7 +225,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -486,18 +521,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA5F4C72-E276-4517-9B7C-25770706BFAF}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="98" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -514,12 +549,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
       <c r="C2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2">
         <v>8</v>
@@ -528,7 +563,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -536,7 +571,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -544,12 +579,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="C5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -558,7 +593,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>10</v>
       </c>
@@ -566,12 +601,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D7">
         <v>4</v>
@@ -580,7 +615,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>10</v>
       </c>
@@ -588,12 +623,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="C9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D9">
         <v>4</v>
@@ -602,7 +637,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>10</v>
       </c>
@@ -610,7 +645,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>11</v>
       </c>
@@ -618,7 +653,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>8</v>
       </c>
@@ -632,7 +667,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>10</v>
       </c>
@@ -640,7 +675,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>11</v>
       </c>
@@ -648,7 +683,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>12</v>
       </c>
@@ -656,7 +691,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>22</v>
       </c>
@@ -664,12 +699,58 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>23</v>
       </c>
       <c r="E17" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>9</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <v>8</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -679,18 +760,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27C985D0-9DA0-44F0-9CF9-DDB0C920DF2C}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="98" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>8</v>
       </c>
@@ -698,13 +779,13 @@
         <v>4</v>
       </c>
       <c r="D1">
-        <v>15</v>
-      </c>
-      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>10</v>
       </c>
@@ -712,7 +793,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>11</v>
       </c>
@@ -720,58 +801,96 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>22</v>
       </c>
       <c r="E5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>10</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="C7">
-        <v>7</v>
-      </c>
-      <c r="D7">
-        <v>8</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" t="s">
-        <v>5</v>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -781,27 +900,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{342B1FB6-246B-4930-BBD6-AA65C3543427}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" customWidth="1"/>
-    <col min="5" max="5" width="60.42578125" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.5546875" customWidth="1"/>
+    <col min="5" max="5" width="60.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>3</v>
       </c>
       <c r="C1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D1">
         <v>4</v>
@@ -810,64 +929,89 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>10</v>
       </c>
       <c r="E2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>5</v>
-      </c>
-      <c r="D3">
-        <v>4</v>
-      </c>
-      <c r="E3" s="1" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="C8">
         <v>7</v>
       </c>
-      <c r="C5">
-        <v>6</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
         <v>11</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E10" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/BackLogAndSprint2Android.xlsx
+++ b/BackLogAndSprint2Android.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexandre\Desktop\Projet-Android\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E71D47-B1A9-4B63-B0C6-6F1CFFAD630E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9645ED0A-4B3A-40D2-A15C-B64FA6B30F40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{73B89499-F026-470B-8F3E-C42C4C713BCD}"/>
+    <workbookView minimized="1" xWindow="-25200" yWindow="2040" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{73B89499-F026-470B-8F3E-C42C4C713BCD}"/>
   </bookViews>
   <sheets>
     <sheet name="BackLog" sheetId="1" r:id="rId1"/>
@@ -132,7 +132,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -151,6 +151,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -165,12 +171,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
@@ -488,7 +495,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA5F4C72-E276-4517-9B7C-25770706BFAF}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
@@ -681,8 +688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27C985D0-9DA0-44F0-9CF9-DDB0C920DF2C}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -708,7 +715,7 @@
       <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -716,7 +723,7 @@
       <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -724,7 +731,7 @@
       <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -732,7 +739,7 @@
       <c r="B5" t="s">
         <v>22</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="3" t="s">
         <v>21</v>
       </c>
     </row>

--- a/BackLogAndSprint2Android.xlsx
+++ b/BackLogAndSprint2Android.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexandre\Desktop\Projet-Android\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9645ED0A-4B3A-40D2-A15C-B64FA6B30F40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62B3A754-FE0D-4F2B-B553-693690C529E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-25200" yWindow="2040" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{73B89499-F026-470B-8F3E-C42C4C713BCD}"/>
+    <workbookView xWindow="-25320" yWindow="390" windowWidth="25440" windowHeight="15990" activeTab="1" xr2:uid="{73B89499-F026-470B-8F3E-C42C4C713BCD}"/>
   </bookViews>
   <sheets>
     <sheet name="BackLog" sheetId="1" r:id="rId1"/>
@@ -689,7 +689,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -769,7 +769,7 @@
       <c r="B8" t="s">
         <v>10</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -777,7 +777,7 @@
       <c r="B9" t="s">
         <v>11</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -791,7 +791,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
